--- a/src/test/resorce/expect2.xlsx
+++ b/src/test/resorce/expect2.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\env\springworkspace\sogoensyu\src\test\resorce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7C8A46-4995-4F52-B1D8-66B623FC5844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822F9A8E-4F62-4C76-BED6-DCA0D018AD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4AF475F6-0AA3-4E80-A598-629C9E25DFFF}"/>
+    <workbookView xWindow="9372" yWindow="432" windowWidth="14232" windowHeight="12360" xr2:uid="{4AF475F6-0AA3-4E80-A598-629C9E25DFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="forresister" sheetId="1" r:id="rId1"/>
-    <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,21 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>mail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>resister_date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -58,69 +45,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hurigana</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>zip_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deleteflag</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>doneflag</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2022-06-27 9:00:00.000000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>aaaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>加藤</t>
-    <rPh sb="0" eb="2">
-      <t>カトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かとう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>111-1111</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト町</t>
-    <rPh sb="3" eb="4">
-      <t>マチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>111-1111-1111</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>seine.kato@rakus-partners.co.jp</t>
   </si>
 </sst>
 </file>
@@ -178,14 +104,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,131 +426,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2E3E71-7604-496F-89FD-877AF1272B90}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="29.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
+      <c r="B2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{EC0DA622-0FC9-407F-80BE-B427C20FBA1A}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{EC0DA622-0FC9-407F-80BE-B427C20FBA1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EE414B-6313-40D1-9E11-6AB96942188A}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.59765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>